--- a/projects/lms/src/assets/template/template.xlsx
+++ b/projects/lms/src/assets/template/template.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lawencon\FINAL PRJ\form\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\final project\front-end\projects\lms\src\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22935F0F-C1FE-4767-B864-95A5E5E93892}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D36087F-3714-41C8-AF60-8030B5A6D292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{458DAD77-594F-4106-B9FE-25AFCD4E9B94}"/>
+    <workbookView xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8880" xr2:uid="{458DAD77-594F-4106-B9FE-25AFCD4E9B94}"/>
   </bookViews>
   <sheets>
     <sheet name="assets" sheetId="1" r:id="rId1"/>
+    <sheet name="companiesCode" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">assets!$D$1:$D$2</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>items_code</t>
   </si>
@@ -39,17 +40,35 @@
     <t>statuses_assets_code</t>
   </si>
   <si>
-    <t>statuses_in_out_code</t>
-  </si>
-  <si>
     <t>assets_expired</t>
+  </si>
+  <si>
+    <t>companies_code</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>companies name</t>
+  </si>
+  <si>
+    <t>COMP1</t>
+  </si>
+  <si>
+    <t>Linov Rocket Prestasi</t>
+  </si>
+  <si>
+    <t>COMP2</t>
+  </si>
+  <si>
+    <t>Lawencon International</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +81,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,10 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,82 +428,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7CD2277-CE92-4D5E-BC44-873804E94B84}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6"/>
+      <c r="E6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6157DE23-39B0-4526-9722-92A27C88BF4B}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>